--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.772687</v>
+        <v>0.134753</v>
       </c>
       <c r="H2">
-        <v>2.318061</v>
+        <v>0.404259</v>
       </c>
       <c r="I2">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349546</v>
       </c>
       <c r="J2">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349547</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.26464</v>
+        <v>2.885018666666667</v>
       </c>
       <c r="N2">
-        <v>6.793919999999999</v>
+        <v>8.655056</v>
       </c>
       <c r="O2">
-        <v>0.1949446419849994</v>
+        <v>0.2739459408611671</v>
       </c>
       <c r="P2">
-        <v>0.1949446419849994</v>
+        <v>0.2739459408611671</v>
       </c>
       <c r="Q2">
-        <v>1.74985788768</v>
+        <v>0.3887649203893333</v>
       </c>
       <c r="R2">
-        <v>15.74872098912</v>
+        <v>3.498884283504</v>
       </c>
       <c r="S2">
-        <v>0.005349139372245117</v>
+        <v>0.001370791285192483</v>
       </c>
       <c r="T2">
-        <v>0.005349139372245118</v>
+        <v>0.001370791285192483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.772687</v>
+        <v>0.134753</v>
       </c>
       <c r="H3">
-        <v>2.318061</v>
+        <v>0.404259</v>
       </c>
       <c r="I3">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349546</v>
       </c>
       <c r="J3">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349547</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.297093</v>
       </c>
       <c r="O3">
-        <v>0.1233007242448023</v>
+        <v>0.1360096554953469</v>
       </c>
       <c r="P3">
-        <v>0.1233007242448023</v>
+        <v>0.1360096554953469</v>
       </c>
       <c r="Q3">
-        <v>1.106769299630333</v>
+        <v>0.1930153910096666</v>
       </c>
       <c r="R3">
-        <v>9.960923696673001</v>
+        <v>1.737138519087</v>
       </c>
       <c r="S3">
-        <v>0.003383282310138902</v>
+        <v>0.0006805753349327401</v>
       </c>
       <c r="T3">
-        <v>0.003383282310138903</v>
+        <v>0.0006805753349327402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.772687</v>
+        <v>0.134753</v>
       </c>
       <c r="H4">
-        <v>2.318061</v>
+        <v>0.404259</v>
       </c>
       <c r="I4">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349546</v>
       </c>
       <c r="J4">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349547</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.595761666666665</v>
+        <v>5.197721</v>
       </c>
       <c r="N4">
-        <v>16.787285</v>
+        <v>15.593163</v>
       </c>
       <c r="O4">
-        <v>0.4816941124159764</v>
+        <v>0.4935477839815871</v>
       </c>
       <c r="P4">
-        <v>0.4816941124159765</v>
+        <v>0.4935477839815871</v>
       </c>
       <c r="Q4">
-        <v>4.323772294931666</v>
+        <v>0.700408497913</v>
       </c>
       <c r="R4">
-        <v>38.913950654385</v>
+        <v>6.303676481217</v>
       </c>
       <c r="S4">
-        <v>0.01321733655188755</v>
+        <v>0.002469651490294906</v>
       </c>
       <c r="T4">
-        <v>0.01321733655188755</v>
+        <v>0.002469651490294906</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.772687</v>
+        <v>0.134753</v>
       </c>
       <c r="H5">
-        <v>2.318061</v>
+        <v>0.404259</v>
       </c>
       <c r="I5">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349546</v>
       </c>
       <c r="J5">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349547</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.324070333333334</v>
+        <v>1.016239</v>
       </c>
       <c r="N5">
-        <v>6.972211000000001</v>
+        <v>3.048717</v>
       </c>
       <c r="O5">
-        <v>0.2000605213542219</v>
+        <v>0.09649661966189875</v>
       </c>
       <c r="P5">
-        <v>0.2000605213542219</v>
+        <v>0.09649661966189876</v>
       </c>
       <c r="Q5">
-        <v>1.795778933652334</v>
+        <v>0.136941253967</v>
       </c>
       <c r="R5">
-        <v>16.162010402871</v>
+        <v>1.232471285703</v>
       </c>
       <c r="S5">
-        <v>0.005489515386065852</v>
+        <v>0.0004828570369294167</v>
       </c>
       <c r="T5">
-        <v>0.005489515386065852</v>
+        <v>0.0004828570369294169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>73.42144400000001</v>
       </c>
       <c r="I6">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403782</v>
       </c>
       <c r="J6">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403783</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.26464</v>
+        <v>2.885018666666667</v>
       </c>
       <c r="N6">
-        <v>6.793919999999999</v>
+        <v>8.655056</v>
       </c>
       <c r="O6">
-        <v>0.1949446419849994</v>
+        <v>0.2739459408611671</v>
       </c>
       <c r="P6">
-        <v>0.1949446419849994</v>
+        <v>0.2739459408611671</v>
       </c>
       <c r="Q6">
-        <v>55.42437964671999</v>
+        <v>70.6074121578738</v>
       </c>
       <c r="R6">
-        <v>498.81941682048</v>
+        <v>635.466709420864</v>
       </c>
       <c r="S6">
-        <v>0.1694267479878614</v>
+        <v>0.2489628569344107</v>
       </c>
       <c r="T6">
-        <v>0.1694267479878614</v>
+        <v>0.2489628569344107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>73.42144400000001</v>
       </c>
       <c r="I7">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403782</v>
       </c>
       <c r="J7">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403783</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.297093</v>
       </c>
       <c r="O7">
-        <v>0.1233007242448023</v>
+        <v>0.1360096554953469</v>
       </c>
       <c r="P7">
-        <v>0.1233007242448023</v>
+        <v>0.1360096554953469</v>
       </c>
       <c r="Q7">
         <v>35.05541922914356</v>
@@ -883,10 +883,10 @@
         <v>315.4987730622921</v>
       </c>
       <c r="S7">
-        <v>0.1071608869093842</v>
+        <v>0.1236059650905618</v>
       </c>
       <c r="T7">
-        <v>0.1071608869093842</v>
+        <v>0.1236059650905618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>73.42144400000001</v>
       </c>
       <c r="I8">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403782</v>
       </c>
       <c r="J8">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403783</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.595761666666665</v>
+        <v>5.197721</v>
       </c>
       <c r="N8">
-        <v>16.787285</v>
+        <v>15.593163</v>
       </c>
       <c r="O8">
-        <v>0.4816941124159764</v>
+        <v>0.4935477839815871</v>
       </c>
       <c r="P8">
-        <v>0.4816941124159765</v>
+        <v>0.4935477839815871</v>
       </c>
       <c r="Q8">
-        <v>136.9496339488378</v>
+        <v>127.2080604430414</v>
       </c>
       <c r="R8">
-        <v>1232.54670553954</v>
+        <v>1144.872543987372</v>
       </c>
       <c r="S8">
-        <v>0.4186412417419408</v>
+        <v>0.4485376419429228</v>
       </c>
       <c r="T8">
-        <v>0.4186412417419408</v>
+        <v>0.4485376419429229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>73.42144400000001</v>
       </c>
       <c r="I9">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403782</v>
       </c>
       <c r="J9">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403783</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.324070333333334</v>
+        <v>1.016239</v>
       </c>
       <c r="N9">
-        <v>6.972211000000001</v>
+        <v>3.048717</v>
       </c>
       <c r="O9">
-        <v>0.2000605213542219</v>
+        <v>0.09649661966189875</v>
       </c>
       <c r="P9">
-        <v>0.2000605213542219</v>
+        <v>0.09649661966189876</v>
       </c>
       <c r="Q9">
-        <v>56.87886661029824</v>
+        <v>24.87124494303867</v>
       </c>
       <c r="R9">
-        <v>511.9097994926841</v>
+        <v>223.841204487348</v>
       </c>
       <c r="S9">
-        <v>0.1738729681855535</v>
+        <v>0.08769640477248276</v>
       </c>
       <c r="T9">
-        <v>0.1738729681855535</v>
+        <v>0.08769640477248279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.913391</v>
+        <v>2.321161</v>
       </c>
       <c r="H10">
-        <v>8.740173</v>
+        <v>6.963483</v>
       </c>
       <c r="I10">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227224</v>
       </c>
       <c r="J10">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227226</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.26464</v>
+        <v>2.885018666666667</v>
       </c>
       <c r="N10">
-        <v>6.793919999999999</v>
+        <v>8.655056</v>
       </c>
       <c r="O10">
-        <v>0.1949446419849994</v>
+        <v>0.2739459408611671</v>
       </c>
       <c r="P10">
-        <v>0.1949446419849994</v>
+        <v>0.2739459408611671</v>
       </c>
       <c r="Q10">
-        <v>6.597781794239999</v>
+        <v>6.696592813338667</v>
       </c>
       <c r="R10">
-        <v>59.38003614815999</v>
+        <v>60.269335320048</v>
       </c>
       <c r="S10">
-        <v>0.02016875462489284</v>
+        <v>0.02361229264156397</v>
       </c>
       <c r="T10">
-        <v>0.02016875462489285</v>
+        <v>0.02361229264156397</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.913391</v>
+        <v>2.321161</v>
       </c>
       <c r="H11">
-        <v>8.740173</v>
+        <v>6.963483</v>
       </c>
       <c r="I11">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227224</v>
       </c>
       <c r="J11">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227226</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.297093</v>
       </c>
       <c r="O11">
-        <v>0.1233007242448023</v>
+        <v>0.1360096554953469</v>
       </c>
       <c r="P11">
-        <v>0.1233007242448023</v>
+        <v>0.1360096554953469</v>
       </c>
       <c r="Q11">
-        <v>4.173037357454334</v>
+        <v>3.324748228324333</v>
       </c>
       <c r="R11">
-        <v>37.557336217089</v>
+        <v>29.922734054919</v>
       </c>
       <c r="S11">
-        <v>0.01275655502527917</v>
+        <v>0.01172311506985235</v>
       </c>
       <c r="T11">
-        <v>0.01275655502527917</v>
+        <v>0.01172311506985235</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.913391</v>
+        <v>2.321161</v>
       </c>
       <c r="H12">
-        <v>8.740173</v>
+        <v>6.963483</v>
       </c>
       <c r="I12">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227224</v>
       </c>
       <c r="J12">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227226</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.595761666666665</v>
+        <v>5.197721</v>
       </c>
       <c r="N12">
-        <v>16.787285</v>
+        <v>15.593163</v>
       </c>
       <c r="O12">
-        <v>0.4816941124159764</v>
+        <v>0.4935477839815871</v>
       </c>
       <c r="P12">
-        <v>0.4816941124159765</v>
+        <v>0.4935477839815871</v>
       </c>
       <c r="Q12">
-        <v>16.30264167781166</v>
+        <v>12.064747274081</v>
       </c>
       <c r="R12">
-        <v>146.723775100305</v>
+        <v>108.582725466729</v>
       </c>
       <c r="S12">
-        <v>0.04983553412214807</v>
+        <v>0.04254049054836935</v>
       </c>
       <c r="T12">
-        <v>0.04983553412214808</v>
+        <v>0.04254049054836936</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.913391</v>
+        <v>2.321161</v>
       </c>
       <c r="H13">
-        <v>8.740173</v>
+        <v>6.963483</v>
       </c>
       <c r="I13">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227224</v>
       </c>
       <c r="J13">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227226</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.324070333333334</v>
+        <v>1.016239</v>
       </c>
       <c r="N13">
-        <v>6.972211000000001</v>
+        <v>3.048717</v>
       </c>
       <c r="O13">
-        <v>0.2000605213542219</v>
+        <v>0.09649661966189875</v>
       </c>
       <c r="P13">
-        <v>0.2000605213542219</v>
+        <v>0.09649661966189876</v>
       </c>
       <c r="Q13">
-        <v>6.770925592500335</v>
+        <v>2.358854333479</v>
       </c>
       <c r="R13">
-        <v>60.93833033250301</v>
+        <v>21.229689001311</v>
       </c>
       <c r="S13">
-        <v>0.0206980377826025</v>
+        <v>0.008317357852486565</v>
       </c>
       <c r="T13">
-        <v>0.0206980377826025</v>
+        <v>0.008317357852486567</v>
       </c>
     </row>
   </sheetData>
